--- a/codigo_final_organizado/Simulaciones/calibracion_y_train/resultados_TEST_TAMANOS_SETAR.xlsx
+++ b/codigo_final_organizado/Simulaciones/calibracion_y_train/resultados_TEST_TAMANOS_SETAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,82 +446,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tipo_Proceso</t>
+          <t>Distribución</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Varianza</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Varianza</t>
+          <t>N_Train</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N_Train</t>
+          <t>N_Calib</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>N_Calib</t>
+          <t>N_Total</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>N_Total</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Sieve Bootstrap</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>LSPM</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -536,55 +531,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" t="n">
         <v>120</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I2" t="n">
-        <v>-0.7712625085838025</v>
+        <v>0.572694707659764</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1715200680725821</v>
+        <v>0.6596888436032724</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3522529132314407</v>
+        <v>0.588961995290507</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2542050504457529</v>
+        <v>0.5872193180769084</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2130603119217752</v>
+        <v>0.5867346132612373</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7703199684976137</v>
+        <v>0.6070071791860941</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2167088477443768</v>
+        <v>0.6138955288487322</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2146870245805582</v>
+        <v>0.7282751488180503</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.268819870897129</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.6671554303334207</v>
+        <v>0.8620155741357105</v>
       </c>
     </row>
     <row r="3">
@@ -598,55 +590,52 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
         <v>120</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I3" t="n">
-        <v>-0.01668530366820092</v>
+        <v>0.5748285640397436</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3330702769595271</v>
+        <v>0.6136217275930768</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5356392242078295</v>
+        <v>0.6742102246148256</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4457934285980188</v>
+        <v>0.5982602467649981</v>
       </c>
       <c r="M3" t="n">
-        <v>0.584747087078288</v>
+        <v>0.5934623057646029</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8360679196959756</v>
+        <v>0.5901556382094151</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4999096650108642</v>
+        <v>0.5917355372851585</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5032910111152252</v>
+        <v>0.5712217225361877</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5240273674829914</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.4618217054771022</v>
+        <v>0.8658110097655739</v>
       </c>
     </row>
     <row r="4">
@@ -660,55 +649,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="n">
         <v>120</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>-0.4649946625417006</v>
+        <v>0.6586659148027173</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1389111943229935</v>
+        <v>0.5989134172960133</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3154316881002382</v>
+        <v>0.7237750269166311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2654983984283378</v>
+        <v>0.738996118238925</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2238989768625812</v>
+        <v>0.7352716752218573</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7976904702201859</v>
+        <v>0.713913748538118</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3064165367672479</v>
+        <v>0.8281178527701663</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3055328573142132</v>
+        <v>0.5879666259519341</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2032813549571728</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1934320330655013</v>
+        <v>0.9166854711623263</v>
       </c>
     </row>
     <row r="5">
@@ -722,55 +708,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
         <v>120</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>-1.504602561292268</v>
+        <v>0.6750470016641604</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6296238616739835</v>
+        <v>0.7024763000758681</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3241763255251465</v>
+        <v>0.6222027989030318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4226130953784795</v>
+        <v>0.7819298864477476</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4900749348623873</v>
+        <v>0.7785424476373416</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7156524372948236</v>
+        <v>0.6794771871465942</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5077971210538325</v>
+        <v>0.5595361825379502</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5516284653701109</v>
+        <v>0.5701468272641013</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4221954898705972</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.03380427425067</v>
+        <v>0.9366849845518429</v>
       </c>
     </row>
     <row r="6">
@@ -784,55 +767,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
         <v>120</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>-2.18069911109498</v>
+        <v>0.5664295395000174</v>
       </c>
       <c r="J6" t="n">
-        <v>1.251427806399931</v>
+        <v>0.5655133721858736</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7864221818673616</v>
+        <v>0.5918439947614591</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9263231415755017</v>
+        <v>0.578645192471762</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5857925077516631</v>
+        <v>0.5780342669080112</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7586277212083967</v>
+        <v>0.5781633016273094</v>
       </c>
       <c r="O6" t="n">
-        <v>1.105352676713278</v>
+        <v>0.5891528513777659</v>
       </c>
       <c r="P6" t="n">
-        <v>1.194711898511069</v>
+        <v>0.5755240420837824</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8008079095866931</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.192998531519131</v>
+        <v>0.859811087240287</v>
       </c>
     </row>
     <row r="7">
@@ -846,55 +826,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
         <v>120</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I7" t="n">
-        <v>-1.135831548934868</v>
+        <v>0.6086343101751713</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3448964539899527</v>
+        <v>0.7360773499590889</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3989588005999709</v>
+        <v>0.68801521520179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3082561143478854</v>
+        <v>0.6961968264875845</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2996487570090894</v>
+        <v>0.6916349892864353</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7416507258632725</v>
+        <v>0.7056852797625287</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2057253630602306</v>
+        <v>0.6506247465897214</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2014687998476934</v>
+        <v>0.5923136321668194</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6380726892049188</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.6348940981826058</v>
+        <v>0.9032248723378065</v>
       </c>
     </row>
     <row r="8">
@@ -908,55 +885,52 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
         <v>120</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I8" t="n">
-        <v>0.8975923270495139</v>
+        <v>0.6725923273098994</v>
       </c>
       <c r="J8" t="n">
-        <v>1.176606169387499</v>
+        <v>0.6083153253086978</v>
       </c>
       <c r="K8" t="n">
-        <v>0.981008797658436</v>
+        <v>0.7118449659275489</v>
       </c>
       <c r="L8" t="n">
-        <v>1.153487154821</v>
+        <v>0.7706392839319541</v>
       </c>
       <c r="M8" t="n">
-        <v>1.543951084303831</v>
+        <v>0.7566211124003235</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9684877372817819</v>
+        <v>0.577357496099832</v>
       </c>
       <c r="O8" t="n">
-        <v>1.958708476090389</v>
+        <v>0.5710967793397419</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9608491066875</v>
+        <v>0.5742986627739306</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.231543402811545</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.344646475248521</v>
+        <v>0.9319208270777316</v>
       </c>
     </row>
     <row r="9">
@@ -970,55 +944,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="n">
         <v>120</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I9" t="n">
-        <v>-0.2888045499513187</v>
+        <v>0.6857272892802256</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1874210798048307</v>
+        <v>1.474637838385157</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4308156185601514</v>
+        <v>0.7519305915614825</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3495321787711482</v>
+        <v>0.5990274066009753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3472918654478757</v>
+        <v>0.649062741944032</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8105995677781039</v>
+        <v>0.7722421249996611</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3924621124609246</v>
+        <v>0.6228203889554881</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3976279580435648</v>
+        <v>1.087054263041342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1918171210379013</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.4608365662142329</v>
+        <v>0.8674993337499575</v>
       </c>
     </row>
     <row r="10">
@@ -1032,55 +1003,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="n">
         <v>120</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>-0.2919210560806738</v>
+        <v>0.6003791601168712</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1842256967900469</v>
+        <v>0.5807824875876814</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2839165177145786</v>
+        <v>0.7487177365713958</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3192437744875017</v>
+        <v>0.6756931178342568</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2204942928347335</v>
+        <v>0.6609582612246975</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8100561399527014</v>
+        <v>0.5859061900123047</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3795185328468237</v>
+        <v>0.6100201841583988</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4116407258470354</v>
+        <v>0.5767560319811481</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4791601039052779</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.1892922218738695</v>
+        <v>0.8993553233517353</v>
       </c>
     </row>
     <row r="11">
@@ -1094,55 +1062,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H11" t="n">
         <v>120</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I11" t="n">
-        <v>0.1106735059541386</v>
+        <v>0.6016781333167606</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4237927954953028</v>
+        <v>0.6738457519952713</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2974907717899036</v>
+        <v>0.6414251562536625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.502035326023795</v>
+        <v>0.5891303614507275</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3737741121273893</v>
+        <v>0.5932865959463827</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8464610253041269</v>
+        <v>0.5979523221809547</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2349958356783391</v>
+        <v>0.7080559751351024</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2455193891657059</v>
+        <v>0.7720236510963967</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2267514647712359</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.209840983175306</v>
+        <v>0.8705214594155581</v>
       </c>
     </row>
     <row r="12">
@@ -1156,55 +1121,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
-      </c>
-      <c r="H12" t="n">
         <v>120</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>1.250664988729755</v>
+        <v>0.5784975679726023</v>
       </c>
       <c r="J12" t="n">
-        <v>1.520225740274068</v>
+        <v>0.6911823532312751</v>
       </c>
       <c r="K12" t="n">
-        <v>1.407643567329902</v>
+        <v>0.7680700822260942</v>
       </c>
       <c r="L12" t="n">
-        <v>1.441464754962234</v>
+        <v>0.6016316128630589</v>
       </c>
       <c r="M12" t="n">
-        <v>1.285659283550391</v>
+        <v>0.5957122461099417</v>
       </c>
       <c r="N12" t="n">
-        <v>1.101698751602831</v>
+        <v>0.6844454872946758</v>
       </c>
       <c r="O12" t="n">
-        <v>1.580790467188533</v>
+        <v>0.6419922520689153</v>
       </c>
       <c r="P12" t="n">
-        <v>1.520222797602259</v>
+        <v>0.6330938981014281</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22599879434234</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.9016903511489331</v>
+        <v>0.874920754113788</v>
       </c>
     </row>
     <row r="13">
@@ -1218,122 +1180,116 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>120</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7091830408760595</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5578530621808779</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5708745338632845</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5988126972644484</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6431466090041216</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5603298209972524</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6041606511998896</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5646640328133915</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8653588637182982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SETAR-2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>100</v>
       </c>
-      <c r="G13" t="n">
+      <c r="F14" t="n">
         <v>20</v>
       </c>
-      <c r="H13" t="n">
+      <c r="G14" t="n">
         <v>120</v>
       </c>
-      <c r="I13" t="n">
-        <v>-0.4059499930010214</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.1486030712559436</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3101920965312817</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.2977538415881082</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.2728962629863224</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.8028611718636662</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.2498989931013256</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.251991948832066</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.2157290669814493</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.2327119444543445</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SETAR-1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>20</v>
-      </c>
-      <c r="H14" t="n">
-        <v>120</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8594578953773113</v>
+      </c>
       <c r="J14" t="n">
-        <v>0.5425270178688885</v>
+        <v>0.7163937025935828</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5353290419263533</v>
+        <v>0.8943253497704193</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5571838549523136</v>
+        <v>0.8814916670290915</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5367741230613606</v>
+        <v>0.8671020824085216</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8300144697136232</v>
+        <v>0.7379645263599957</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6365237189763472</v>
+        <v>0.7202594970924133</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6465976652430833</v>
+        <v>0.802176362224277</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5356837196541043</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.6269270512453031</v>
+        <v>1.359121210890429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1342,60 +1298,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" t="n">
         <v>120</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I15" t="n">
-        <v>0.131251303027796</v>
+        <v>0.689558417816317</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2370777657727925</v>
+        <v>0.6225413912167517</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4509606889955272</v>
+        <v>0.7701318818630682</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3996748839069976</v>
+        <v>0.676599672096467</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2793325065054577</v>
+        <v>0.8054433054520633</v>
       </c>
       <c r="N15" t="n">
-        <v>1.14076711591447</v>
+        <v>0.6702409412580922</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4390991882111178</v>
+        <v>0.596723519846565</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4951362888341716</v>
+        <v>0.8525843200722636</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4595355929945619</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.4505016875970566</v>
+        <v>1.101782370269027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1404,60 +1357,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
-      </c>
-      <c r="H16" t="n">
         <v>120</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I16" t="n">
-        <v>0.6919818073937405</v>
+        <v>0.8238395305620869</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3876736253280908</v>
+        <v>1.068346804396257</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7174126962715104</v>
+        <v>0.65180729909596</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5142929531561172</v>
+        <v>0.6898610680606752</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3864632164745603</v>
+        <v>0.8345042655593319</v>
       </c>
       <c r="N16" t="n">
-        <v>1.169339435677736</v>
+        <v>0.6760002306320116</v>
       </c>
       <c r="O16" t="n">
-        <v>0.756898707233814</v>
+        <v>0.6028390714898937</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7820485345354135</v>
+        <v>0.8924294493889957</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8814769669232564</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.425833871756165</v>
+        <v>1.090724482054251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1466,60 +1416,57 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
-      </c>
-      <c r="H17" t="n">
         <v>120</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I17" t="n">
-        <v>-2.431817048937182</v>
+        <v>1.890301323072909</v>
       </c>
       <c r="J17" t="n">
-        <v>2.043546936122145</v>
+        <v>1.140300333977333</v>
       </c>
       <c r="K17" t="n">
-        <v>1.475363789348037</v>
+        <v>1.023964355986193</v>
       </c>
       <c r="L17" t="n">
-        <v>1.638024768430782</v>
+        <v>1.610802764073148</v>
       </c>
       <c r="M17" t="n">
-        <v>1.877803234157793</v>
+        <v>1.690571806042744</v>
       </c>
       <c r="N17" t="n">
-        <v>1.159669396705576</v>
+        <v>0.6311419164055129</v>
       </c>
       <c r="O17" t="n">
-        <v>1.848709712032109</v>
+        <v>0.5865341293993076</v>
       </c>
       <c r="P17" t="n">
-        <v>1.831557909770737</v>
+        <v>0.9763135856322733</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.707453462850712</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.091451552009934</v>
+        <v>1.645556893859469</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1528,60 +1475,57 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
-      </c>
-      <c r="H18" t="n">
         <v>120</v>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I18" t="n">
-        <v>4.010473758277635</v>
+        <v>1.812217644262288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.228760557418823</v>
+        <v>1.251857004259084</v>
       </c>
       <c r="K18" t="n">
-        <v>3.448839763499097</v>
+        <v>1.243052242267008</v>
       </c>
       <c r="L18" t="n">
-        <v>3.183413762552223</v>
+        <v>1.876589495507422</v>
       </c>
       <c r="M18" t="n">
-        <v>3.337426259912962</v>
+        <v>1.959639102427574</v>
       </c>
       <c r="N18" t="n">
-        <v>2.829659922238459</v>
+        <v>0.7662521876779861</v>
       </c>
       <c r="O18" t="n">
-        <v>3.822655423116401</v>
+        <v>0.843990319663531</v>
       </c>
       <c r="P18" t="n">
-        <v>3.751651794935743</v>
+        <v>1.364294864806384</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.811134965100114</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.594545028958902</v>
+        <v>1.757574727488716</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1590,60 +1534,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" t="n">
         <v>120</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I19" t="n">
-        <v>4.008803468044678</v>
+        <v>1.779139942283233</v>
       </c>
       <c r="J19" t="n">
-        <v>3.205523554408095</v>
+        <v>0.7386470990766918</v>
       </c>
       <c r="K19" t="n">
-        <v>2.881509828046844</v>
+        <v>2.134387703145591</v>
       </c>
       <c r="L19" t="n">
-        <v>3.119493278662629</v>
+        <v>1.630747805234159</v>
       </c>
       <c r="M19" t="n">
-        <v>3.167517631385043</v>
+        <v>2.084079925204029</v>
       </c>
       <c r="N19" t="n">
-        <v>2.789927902224098</v>
+        <v>0.6751727314079781</v>
       </c>
       <c r="O19" t="n">
-        <v>3.087003862827378</v>
+        <v>0.6106741074674144</v>
       </c>
       <c r="P19" t="n">
-        <v>3.078675906833895</v>
+        <v>1.812672912052485</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.789533122658463</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.218310506878796</v>
+        <v>1.325179618959999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1652,60 +1593,57 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
         <v>120</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I20" t="n">
-        <v>-4.015382663347362</v>
+        <v>0.9021305453706929</v>
       </c>
       <c r="J20" t="n">
-        <v>3.638192609008593</v>
+        <v>0.5826421824276696</v>
       </c>
       <c r="K20" t="n">
-        <v>1.906689440677249</v>
+        <v>2.287186441027309</v>
       </c>
       <c r="L20" t="n">
-        <v>3.068519173761442</v>
+        <v>1.093644347843479</v>
       </c>
       <c r="M20" t="n">
-        <v>1.036627609804641</v>
+        <v>1.10228253122079</v>
       </c>
       <c r="N20" t="n">
-        <v>2.418030397000078</v>
+        <v>0.6822978555277084</v>
       </c>
       <c r="O20" t="n">
-        <v>2.92159329610524</v>
+        <v>0.6095748669443248</v>
       </c>
       <c r="P20" t="n">
-        <v>2.957169833595354</v>
+        <v>0.6379665981030878</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.128497777162697</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.836790902043778</v>
+        <v>1.433261158218607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1714,60 +1652,57 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" t="n">
         <v>120</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I21" t="n">
-        <v>3.473741939226151</v>
+        <v>2.007332846178786</v>
       </c>
       <c r="J21" t="n">
-        <v>2.662467803386992</v>
+        <v>0.689873237430127</v>
       </c>
       <c r="K21" t="n">
-        <v>2.21024167307807</v>
+        <v>0.907639126643033</v>
       </c>
       <c r="L21" t="n">
-        <v>2.597346902545425</v>
+        <v>1.983611842392402</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7442457031707559</v>
+        <v>2.076872042179648</v>
       </c>
       <c r="N21" t="n">
-        <v>2.213277718364528</v>
+        <v>0.6217169536997827</v>
       </c>
       <c r="O21" t="n">
-        <v>4.045181614222265</v>
+        <v>0.6370142031229081</v>
       </c>
       <c r="P21" t="n">
-        <v>3.512127618532062</v>
+        <v>1.326226370981907</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.502040012644641</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.083153975020779</v>
+        <v>1.796696574114831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1776,60 +1711,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
-      </c>
-      <c r="H22" t="n">
         <v>120</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I22" t="n">
-        <v>2.927128367332874</v>
+        <v>0.8163897255895276</v>
       </c>
       <c r="J22" t="n">
-        <v>2.098597550017043</v>
+        <v>0.5817214316297854</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7301719926197414</v>
+        <v>2.010936578243783</v>
       </c>
       <c r="L22" t="n">
-        <v>2.064464232619425</v>
+        <v>0.6781355457288362</v>
       </c>
       <c r="M22" t="n">
-        <v>1.282881109049836</v>
+        <v>0.8214817882417098</v>
       </c>
       <c r="N22" t="n">
-        <v>1.709008391950348</v>
+        <v>0.6077981689263748</v>
       </c>
       <c r="O22" t="n">
-        <v>0.600933229020149</v>
+        <v>0.5890537025258579</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6441413911206426</v>
+        <v>0.976785877002088</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.134041631399771</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.5435992603535218</v>
+        <v>1.096187724178143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1838,60 +1770,57 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
-      </c>
-      <c r="H23" t="n">
         <v>120</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I23" t="n">
-        <v>-2.247015198034175</v>
+        <v>0.6243771736893411</v>
       </c>
       <c r="J23" t="n">
-        <v>1.890048561498145</v>
+        <v>0.998439801200775</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7805790266138349</v>
+        <v>0.9608064565094863</v>
       </c>
       <c r="L23" t="n">
-        <v>1.418209387928361</v>
+        <v>0.6457560975271627</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5721481631059586</v>
+        <v>0.6173938640117116</v>
       </c>
       <c r="N23" t="n">
-        <v>1.140317608813646</v>
+        <v>0.7050019991237785</v>
       </c>
       <c r="O23" t="n">
-        <v>3.564956836035074</v>
+        <v>0.5945625442309586</v>
       </c>
       <c r="P23" t="n">
-        <v>3.610878170654629</v>
+        <v>0.6371153631921466</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5149543095568989</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.4088308103427249</v>
+        <v>1.239307842636258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1900,60 +1829,57 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" t="n">
         <v>120</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I24" t="n">
-        <v>2.104262350289507</v>
+        <v>0.8294553565884212</v>
       </c>
       <c r="J24" t="n">
-        <v>1.323882933986113</v>
+        <v>0.6304318826262985</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45936597304267</v>
+        <v>0.6738133836808829</v>
       </c>
       <c r="L24" t="n">
-        <v>1.249527393229862</v>
+        <v>0.9592293153862361</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3070050993986591</v>
+        <v>0.935330253832789</v>
       </c>
       <c r="N24" t="n">
-        <v>1.318289279050442</v>
+        <v>0.6505694142277793</v>
       </c>
       <c r="O24" t="n">
-        <v>3.310019129503154</v>
+        <v>0.6023165237723924</v>
       </c>
       <c r="P24" t="n">
-        <v>2.846914368343988</v>
+        <v>0.5836518184503434</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4392732353813738</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.3937693086794037</v>
+        <v>1.371224786384749</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1962,184 +1888,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" t="n">
         <v>120</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tr100_Ca20</t>
+        </is>
+      </c>
       <c r="I25" t="n">
-        <v>1.148700857494865</v>
+        <v>0.8906203367271297</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6216190234135019</v>
+        <v>0.8323673378848546</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8390584631612934</v>
+        <v>1.499445926442193</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6747347039532233</v>
+        <v>0.8963107596998272</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4114004286764356</v>
+        <v>1.152142095220278</v>
       </c>
       <c r="N25" t="n">
-        <v>1.196818919104703</v>
+        <v>1.039696419884428</v>
       </c>
       <c r="O25" t="n">
-        <v>0.442036847993564</v>
+        <v>0.6493910715351976</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5379047715330865</v>
+        <v>1.673547421920084</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.181247644275444</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.6138001019799482</v>
+        <v>1.097853206196598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>140</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5481224934214605</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6033886846501682</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7706711434016494</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.765331926907262</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5930184030060849</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5555898865306821</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5580189078018972</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.5994666859992301</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.9759805245811374</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SETAR-1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
         <v>100</v>
       </c>
-      <c r="G26" t="n">
-        <v>20</v>
-      </c>
-      <c r="H26" t="n">
-        <v>120</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-0.8794855336481837</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6376505499102973</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7069619352333865</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.5860084690340747</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.3132452993513511</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.089953713598914</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.822529593397645</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.936682967664924</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.4632147204038124</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.3709641696828863</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
-      </c>
-      <c r="H27" t="n">
-        <v>120</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5795332793717823</v>
+      </c>
       <c r="J27" t="n">
-        <v>1.831253455855886</v>
+        <v>0.5742615414368303</v>
       </c>
       <c r="K27" t="n">
-        <v>1.383929605882272</v>
+        <v>0.6929274998243443</v>
       </c>
       <c r="L27" t="n">
-        <v>1.709475825815047</v>
+        <v>0.8703347213546421</v>
       </c>
       <c r="M27" t="n">
-        <v>1.143008021749454</v>
+        <v>0.6614164449452495</v>
       </c>
       <c r="N27" t="n">
-        <v>1.681254983386917</v>
+        <v>0.591981496011693</v>
       </c>
       <c r="O27" t="n">
-        <v>2.221801453308159</v>
+        <v>0.6914992718306164</v>
       </c>
       <c r="P27" t="n">
-        <v>2.165407463029554</v>
+        <v>0.646206672792948</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.417700286779312</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.252629264608658</v>
+        <v>1.024754230285903</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2148,60 +2065,57 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
-      </c>
-      <c r="H28" t="n">
         <v>140</v>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I28" t="n">
-        <v>-0.310219578524298</v>
+        <v>0.5888976858039885</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2292826478057173</v>
+        <v>0.5860214951092304</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9792100756061025</v>
+        <v>0.5828914166667712</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2674652128808617</v>
+        <v>0.783602423643204</v>
       </c>
       <c r="M28" t="n">
-        <v>1.343930061350135</v>
+        <v>0.6227760883331891</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9504141071768546</v>
+        <v>0.5869700596874268</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3688503562590019</v>
+        <v>0.6218528431581328</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3385315816225727</v>
+        <v>0.5976678009094677</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.036729973227915</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.5628194921616589</v>
+        <v>0.9805638800741916</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2210,60 +2124,57 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
-      </c>
-      <c r="H29" t="n">
         <v>140</v>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I29" t="n">
-        <v>-0.01706813999034376</v>
+        <v>0.6278652592937004</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3265740558277551</v>
+        <v>0.6165790929248975</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2608401623792888</v>
+        <v>0.6499389047541699</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3464641214901359</v>
+        <v>0.6556246216169359</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2434781063137542</v>
+        <v>0.583874562148077</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9802673900130883</v>
+        <v>0.6106589246314875</v>
       </c>
       <c r="O29" t="n">
-        <v>0.738099671262745</v>
+        <v>0.7056235347975063</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7361045343408424</v>
+        <v>0.5893804553075958</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2375727608179333</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.437894673721645</v>
+        <v>0.9161732445218821</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2272,60 +2183,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
-      </c>
-      <c r="H30" t="n">
         <v>140</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I30" t="n">
-        <v>-0.06294855590903201</v>
+        <v>0.5999175688853361</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3041687453808001</v>
+        <v>0.6340546181363469</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2174488101022661</v>
+        <v>0.6159736560224318</v>
       </c>
       <c r="L30" t="n">
-        <v>0.298136887304265</v>
+        <v>0.8694646772328422</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3005054438372556</v>
+        <v>0.6603473161986115</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9736185206641665</v>
+        <v>0.6995514732397947</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3580249725081884</v>
+        <v>0.575505667893527</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3402391237076279</v>
+        <v>0.6180958453252596</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3941857273223487</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.2967644494142352</v>
+        <v>1.018313766779908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2334,60 +2242,57 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
-      </c>
-      <c r="H31" t="n">
         <v>140</v>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>-0.9200105018810794</v>
+        <v>0.583957096770233</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3312956583209026</v>
+        <v>0.6813750330726507</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4328334828331076</v>
+        <v>0.5837826024821333</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3060345293916544</v>
+        <v>0.6569199011647197</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4675611378469704</v>
+        <v>0.5764360600182867</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8786498592973488</v>
+        <v>0.5887852670301968</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4522309479774501</v>
+        <v>0.640500925673317</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5055582896697551</v>
+        <v>0.5854871274495149</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.683189311563929</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.2586208970782115</v>
+        <v>0.9180746560582599</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2396,60 +2301,57 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
-      </c>
-      <c r="H32" t="n">
         <v>140</v>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I32" t="n">
-        <v>-1.416112326516152</v>
+        <v>0.797797018413968</v>
       </c>
       <c r="J32" t="n">
-        <v>0.586876123475671</v>
+        <v>0.7155898154229351</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9385305722526321</v>
+        <v>1.102310996750371</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5288132018729126</v>
+        <v>0.5797588025369166</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02167945602161</v>
+        <v>0.7005184102058822</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8255913191736044</v>
+        <v>0.6583223583136114</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7279858227948305</v>
+        <v>0.5730123963403657</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8255500237047384</v>
+        <v>0.807010416840343</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4764439419754439</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.8670322132346155</v>
+        <v>0.8550263321030266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2458,60 +2360,57 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
-      </c>
-      <c r="H33" t="n">
         <v>140</v>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I33" t="n">
-        <v>-1.544249680438131</v>
+        <v>0.5929163942253318</v>
       </c>
       <c r="J33" t="n">
-        <v>0.673635675023685</v>
+        <v>0.6949676257494191</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6070553662447828</v>
+        <v>0.7120120366226881</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6327566498638496</v>
+        <v>0.8807798516035619</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4845655697623763</v>
+        <v>0.6789974359505356</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8134116378109817</v>
+        <v>0.697757219325461</v>
       </c>
       <c r="O33" t="n">
-        <v>0.6735952891056503</v>
+        <v>0.6225477055793525</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7287904795899948</v>
+        <v>0.6586647549422731</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2956589322245851</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.3864460311075042</v>
+        <v>1.022548033576738</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2520,60 +2419,57 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
-      </c>
-      <c r="H34" t="n">
         <v>140</v>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I34" t="n">
-        <v>-2.327475208508031</v>
+        <v>0.5814446498798467</v>
       </c>
       <c r="J34" t="n">
-        <v>1.247407135370636</v>
+        <v>0.5740906889950049</v>
       </c>
       <c r="K34" t="n">
-        <v>1.611731137492019</v>
+        <v>0.5698481781941767</v>
       </c>
       <c r="L34" t="n">
-        <v>1.220888550097544</v>
+        <v>0.6352672661606927</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6443740416168052</v>
+        <v>0.5614450376883411</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7960324961768663</v>
+        <v>0.6984968130952741</v>
       </c>
       <c r="O34" t="n">
-        <v>1.019401805417221</v>
+        <v>0.6750009433282943</v>
       </c>
       <c r="P34" t="n">
-        <v>1.038466467376417</v>
+        <v>0.5666243162249586</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.367211945068084</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.8788922514635574</v>
+        <v>0.9109015584726445</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2582,60 +2478,57 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
-      </c>
-      <c r="H35" t="n">
         <v>140</v>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I35" t="n">
-        <v>-3.677679248193472</v>
+        <v>0.5842764234951611</v>
       </c>
       <c r="J35" t="n">
-        <v>2.452848256028347</v>
+        <v>0.5697902545487465</v>
       </c>
       <c r="K35" t="n">
-        <v>1.19757688794974</v>
+        <v>0.5936063718465101</v>
       </c>
       <c r="L35" t="n">
-        <v>2.538325071330548</v>
+        <v>0.5872597521163486</v>
       </c>
       <c r="M35" t="n">
-        <v>1.186201135472922</v>
+        <v>0.5613581091933321</v>
       </c>
       <c r="N35" t="n">
-        <v>1.635733743669317</v>
+        <v>0.5976927320788462</v>
       </c>
       <c r="O35" t="n">
-        <v>2.22818556582553</v>
+        <v>0.708706593429792</v>
       </c>
       <c r="P35" t="n">
-        <v>2.223510589210397</v>
+        <v>0.5703001836104667</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.279326995363614</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.482542171001416</v>
+        <v>0.8869121533648452</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2644,60 +2537,57 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
-      </c>
-      <c r="H36" t="n">
         <v>140</v>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I36" t="n">
-        <v>-1.186947593635763</v>
+        <v>0.5646120387826222</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4462157216688742</v>
+        <v>0.5671853934086042</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2928642250506888</v>
+        <v>0.5834175178495694</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4144403368105815</v>
+        <v>0.6803491739446761</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5728774079495224</v>
+        <v>0.5662019076228322</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8488980291667341</v>
+        <v>0.5868754343361975</v>
       </c>
       <c r="O36" t="n">
-        <v>0.3281090581577021</v>
+        <v>0.5874224724632994</v>
       </c>
       <c r="P36" t="n">
-        <v>0.2972848340629319</v>
+        <v>0.5947036490747142</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2331502151298553</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.2641057637569576</v>
+        <v>0.9354987706914232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2706,246 +2596,234 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
-      </c>
-      <c r="H37" t="n">
         <v>140</v>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I37" t="n">
-        <v>0.9297218017032781</v>
+        <v>0.6412059263488517</v>
       </c>
       <c r="J37" t="n">
-        <v>0.96461975053677</v>
+        <v>0.7228019823773488</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3202414348474912</v>
+        <v>0.5921649667776258</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9726059725781699</v>
+        <v>0.6153904521878635</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8633457494201459</v>
+        <v>0.5790700547834634</v>
       </c>
       <c r="N37" t="n">
-        <v>1.133991469611497</v>
+        <v>1.558720835048061</v>
       </c>
       <c r="O37" t="n">
-        <v>1.574609840962484</v>
+        <v>1.421456272889887</v>
       </c>
       <c r="P37" t="n">
-        <v>1.78665167065631</v>
+        <v>0.611557343754605</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5578265783899746</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.154459568126006</v>
+        <v>0.8944969876491208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
-      </c>
-      <c r="H38" t="n">
         <v>140</v>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I38" t="n">
-        <v>-1.114334724687362</v>
+        <v>0.6069198531620263</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4094250249656545</v>
+        <v>0.615253227395579</v>
       </c>
       <c r="K38" t="n">
-        <v>1.24070325496242</v>
+        <v>0.6003564567345077</v>
       </c>
       <c r="L38" t="n">
-        <v>0.372437608694611</v>
+        <v>0.5953955182229573</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8550751836244027</v>
+        <v>0.5896792361531565</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8532715240609663</v>
+        <v>0.7203258075456125</v>
       </c>
       <c r="O38" t="n">
-        <v>0.3194534205478334</v>
+        <v>0.589706457920384</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2965936294624177</v>
+        <v>0.613296470497412</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6083720048349063</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.651636625925227</v>
+        <v>1.089583727790891</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" t="n">
+        <v>140</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7193527114182385</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5760772875483625</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.572947256440181</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6156963800823082</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5741479533233913</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6519339636542025</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5865193086399882</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6129411754089664</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.081762012654104</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SETAR-2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>100</v>
       </c>
-      <c r="G39" t="n">
+      <c r="F40" t="n">
         <v>40</v>
       </c>
-      <c r="H39" t="n">
+      <c r="G40" t="n">
         <v>140</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.08628689808960943</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.389965789962389</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3110898400260915</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.3991512201710524</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.2011503722026585</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.9877668985080339</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.3099704876882162</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.3255903941258194</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.2765620545985555</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.2780139042009249</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SETAR-1</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>100</v>
-      </c>
-      <c r="G40" t="n">
-        <v>40</v>
-      </c>
-      <c r="H40" t="n">
-        <v>140</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7971168480677495</v>
+      </c>
       <c r="J40" t="n">
-        <v>0.6968595486972667</v>
+        <v>0.9368463981125923</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7008437708122194</v>
+        <v>0.6062774212268877</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6914599468738487</v>
+        <v>0.8340975870644887</v>
       </c>
       <c r="M40" t="n">
-        <v>0.6820619721182132</v>
+        <v>0.7340358516780305</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9731372496107881</v>
+        <v>0.6373138694982288</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7582097698755712</v>
+        <v>0.6582045954757598</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7869059681274854</v>
+        <v>0.9250445239389773</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6205192033764287</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.70993567009933</v>
+        <v>1.08972691502528</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2954,60 +2832,57 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
-      </c>
-      <c r="H41" t="n">
         <v>140</v>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I41" t="n">
-        <v>0.3829636629229148</v>
+        <v>0.6912505354983886</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3040567337134407</v>
+        <v>0.7590332160200133</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3856435142660737</v>
+        <v>0.6184754850127359</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4060072529843376</v>
+        <v>0.6297632873419237</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4127577188216398</v>
+        <v>0.7256634456620142</v>
       </c>
       <c r="N41" t="n">
-        <v>1.18640920905145</v>
+        <v>0.6328955393634367</v>
       </c>
       <c r="O41" t="n">
-        <v>0.3315198433775046</v>
+        <v>0.6012886257959235</v>
       </c>
       <c r="P41" t="n">
-        <v>0.4183725170148576</v>
+        <v>0.6455721385612597</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4347363203268114</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.2897161434996729</v>
+        <v>1.113674246707198</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3016,60 +2891,57 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
-      </c>
-      <c r="H42" t="n">
         <v>140</v>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I42" t="n">
-        <v>-0.6564297892787786</v>
+        <v>0.6096232836481452</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8861169309617838</v>
+        <v>0.6567193097906393</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4325989117041588</v>
+        <v>0.5764141539214278</v>
       </c>
       <c r="L42" t="n">
-        <v>0.426014602227107</v>
+        <v>0.5761588946599221</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4350381675523146</v>
+        <v>0.5852374846966386</v>
       </c>
       <c r="N42" t="n">
-        <v>1.111980808948213</v>
+        <v>0.8983424112793108</v>
       </c>
       <c r="O42" t="n">
-        <v>1.042093196341784</v>
+        <v>0.7170450313708491</v>
       </c>
       <c r="P42" t="n">
-        <v>1.378110568089575</v>
+        <v>0.6021542621520706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4746184592215228</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.2664076369406787</v>
+        <v>1.083999939627682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3078,60 +2950,57 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
-      </c>
-      <c r="H43" t="n">
         <v>140</v>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I43" t="n">
-        <v>0.1124810678870419</v>
+        <v>0.5935741275369711</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4042976665530992</v>
+        <v>0.5569954390870324</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3274540452173349</v>
+        <v>0.8586762400242141</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3718366855995142</v>
+        <v>0.6171498870697193</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3540840337682549</v>
+        <v>0.7154743238065581</v>
       </c>
       <c r="N43" t="n">
-        <v>1.166229783416726</v>
+        <v>0.6112395010577756</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6362208228532422</v>
+        <v>0.6049682389085248</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4508801133686905</v>
+        <v>0.6092768155841954</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4703660538314901</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.4081181282758396</v>
+        <v>1.110676588002573</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3140,60 +3009,57 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
-        <v>40</v>
-      </c>
-      <c r="H44" t="n">
         <v>140</v>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I44" t="n">
-        <v>1.963826916915916</v>
+        <v>0.7069621554776827</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7506795526804314</v>
+        <v>0.7615598567870819</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7107545759046682</v>
+        <v>0.6295618786244942</v>
       </c>
       <c r="L44" t="n">
-        <v>1.283287639825232</v>
+        <v>0.7415154495003629</v>
       </c>
       <c r="M44" t="n">
-        <v>1.378858548306821</v>
+        <v>0.8933134604643319</v>
       </c>
       <c r="N44" t="n">
-        <v>1.335613630895405</v>
+        <v>0.6020942926325619</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8475084933731686</v>
+        <v>0.6109692079277944</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6355199640416636</v>
+        <v>0.7432682240605426</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5620368845052228</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.4763682043189678</v>
+        <v>1.147449151143003</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3202,60 +3068,57 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
-      </c>
-      <c r="H45" t="n">
         <v>140</v>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I45" t="n">
-        <v>-2.504383087823723</v>
+        <v>0.7060615716713287</v>
       </c>
       <c r="J45" t="n">
-        <v>2.583551746535607</v>
+        <v>0.5641312201377688</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9623946313615956</v>
+        <v>0.7217730099111258</v>
       </c>
       <c r="L45" t="n">
-        <v>1.809397976223076</v>
+        <v>0.633787049939888</v>
       </c>
       <c r="M45" t="n">
-        <v>1.682768787395275</v>
+        <v>0.5822535422547794</v>
       </c>
       <c r="N45" t="n">
-        <v>1.218047557718796</v>
+        <v>0.6194911776956592</v>
       </c>
       <c r="O45" t="n">
-        <v>2.048921006253055</v>
+        <v>0.5962768015366681</v>
       </c>
       <c r="P45" t="n">
-        <v>2.345262723224019</v>
+        <v>0.6840018564107208</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.673040252754896</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.00862894790378</v>
+        <v>1.07540023940294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3264,60 +3127,57 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
-      </c>
-      <c r="H46" t="n">
         <v>140</v>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I46" t="n">
-        <v>1.619472933855349</v>
+        <v>0.6164977930466274</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5214283633440367</v>
+        <v>0.6001118713611655</v>
       </c>
       <c r="K46" t="n">
-        <v>1.51113506320322</v>
+        <v>0.637559503653423</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9095373755559383</v>
+        <v>0.5833182920046847</v>
       </c>
       <c r="M46" t="n">
-        <v>1.187842544474195</v>
+        <v>0.6285758515436616</v>
       </c>
       <c r="N46" t="n">
-        <v>1.287419197330925</v>
+        <v>0.5913969674875937</v>
       </c>
       <c r="O46" t="n">
-        <v>1.340602800058774</v>
+        <v>0.6591973663911326</v>
       </c>
       <c r="P46" t="n">
-        <v>1.062334968385736</v>
+        <v>0.5907866974564657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.111439724168511</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.7219425885175874</v>
+        <v>1.096615170406315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3326,60 +3186,57 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>40</v>
-      </c>
-      <c r="H47" t="n">
         <v>140</v>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I47" t="n">
-        <v>2.146389302799237</v>
+        <v>0.5729581298450761</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8936438881623757</v>
+        <v>0.6100689597831572</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9364818838212674</v>
+        <v>0.6047698962459783</v>
       </c>
       <c r="L47" t="n">
-        <v>1.338113197283482</v>
+        <v>0.5670140607113018</v>
       </c>
       <c r="M47" t="n">
-        <v>1.522927361709447</v>
+        <v>0.608707136310552</v>
       </c>
       <c r="N47" t="n">
-        <v>1.37500934892764</v>
+        <v>0.679774517032432</v>
       </c>
       <c r="O47" t="n">
-        <v>1.473902665824134</v>
+        <v>0.6623179040376175</v>
       </c>
       <c r="P47" t="n">
-        <v>1.257427040633006</v>
+        <v>0.6376403837435913</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.59777013765298</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.7333744063561982</v>
+        <v>1.092986278645533</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3388,60 +3245,57 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>40</v>
-      </c>
-      <c r="H48" t="n">
         <v>140</v>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I48" t="n">
-        <v>-0.8864492628832094</v>
+        <v>0.6154724088819395</v>
       </c>
       <c r="J48" t="n">
-        <v>1.062589383205178</v>
+        <v>0.6376206210799378</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4649773687479221</v>
+        <v>0.5728214443132562</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5421761357546547</v>
+        <v>0.6259753777258754</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5184429908575368</v>
+        <v>0.7211784964880122</v>
       </c>
       <c r="N48" t="n">
-        <v>1.098416996803046</v>
+        <v>0.6701575957881053</v>
       </c>
       <c r="O48" t="n">
-        <v>1.131374320671769</v>
+        <v>0.7182895342606185</v>
       </c>
       <c r="P48" t="n">
-        <v>1.414026871182017</v>
+        <v>0.5990340092899441</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.5365584012665512</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.3308224158444598</v>
+        <v>1.117263525262581</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3450,308 +3304,293 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>40</v>
-      </c>
-      <c r="H49" t="n">
         <v>140</v>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Tr100_Ca40</t>
+        </is>
+      </c>
       <c r="I49" t="n">
-        <v>-0.649787275041693</v>
+        <v>0.6550572408026882</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8627775637949217</v>
+        <v>0.7745984535715192</v>
       </c>
       <c r="K49" t="n">
-        <v>1.036396591990359</v>
+        <v>0.6332287655470762</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4556552562530457</v>
+        <v>0.6277256591517014</v>
       </c>
       <c r="M49" t="n">
-        <v>0.408697946063008</v>
+        <v>0.594203343391164</v>
       </c>
       <c r="N49" t="n">
-        <v>1.112643911286337</v>
+        <v>0.7607237580995492</v>
       </c>
       <c r="O49" t="n">
-        <v>0.3905038701312711</v>
+        <v>0.714402288905399</v>
       </c>
       <c r="P49" t="n">
-        <v>0.3598716778518105</v>
+        <v>0.7476702211239725</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8121649822282136</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.4616148767241504</v>
+        <v>1.081891638113751</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
-      </c>
-      <c r="H50" t="n">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
       </c>
       <c r="I50" t="n">
-        <v>-0.3739834357007737</v>
+        <v>0.5715380259321414</v>
       </c>
       <c r="J50" t="n">
-        <v>0.677721898233443</v>
+        <v>0.5489114859191471</v>
       </c>
       <c r="K50" t="n">
-        <v>1.210753515025772</v>
+        <v>0.5468623308699199</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3802966210573053</v>
+        <v>0.5658690202290443</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3137993408242169</v>
+        <v>0.5712431709710452</v>
       </c>
       <c r="N50" t="n">
-        <v>1.130943294157727</v>
+        <v>0.5707110384588268</v>
       </c>
       <c r="O50" t="n">
-        <v>0.513052715335606</v>
+        <v>0.6018313494801057</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7164945189618163</v>
+        <v>0.5706241317255746</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.45765645439956</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.826228541881606</v>
+        <v>0.7837533370495258</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>40</v>
-      </c>
-      <c r="H51" t="n">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
       </c>
       <c r="I51" t="n">
-        <v>-2.116054137519495</v>
+        <v>0.5682964245614139</v>
       </c>
       <c r="J51" t="n">
-        <v>2.187985577764145</v>
+        <v>0.5634711680746812</v>
       </c>
       <c r="K51" t="n">
-        <v>1.294172517565286</v>
+        <v>0.5932017123993423</v>
       </c>
       <c r="L51" t="n">
-        <v>1.402861269803757</v>
+        <v>0.6750557836078983</v>
       </c>
       <c r="M51" t="n">
-        <v>1.284746769497231</v>
+        <v>0.5819866957208832</v>
       </c>
       <c r="N51" t="n">
-        <v>1.105488743126839</v>
+        <v>0.591247987369579</v>
       </c>
       <c r="O51" t="n">
-        <v>2.552624209229629</v>
+        <v>0.5914975233790051</v>
       </c>
       <c r="P51" t="n">
-        <v>2.825587910232566</v>
+        <v>0.5814372828492734</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.617413047913919</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.412082688792367</v>
+        <v>0.8065769915646993</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>40</v>
-      </c>
-      <c r="H52" t="n">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
       </c>
       <c r="I52" t="n">
-        <v>-0.6912342740376486</v>
+        <v>0.7362300379935429</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9059014079586529</v>
+        <v>0.5713547920453967</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3383519719098971</v>
+        <v>0.7827298060811411</v>
       </c>
       <c r="L52" t="n">
-        <v>0.4350114736647136</v>
+        <v>0.562055744816765</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3601312279165986</v>
+        <v>0.6304834935293165</v>
       </c>
       <c r="N52" t="n">
-        <v>1.104952795359223</v>
+        <v>0.6546197798298082</v>
       </c>
       <c r="O52" t="n">
-        <v>0.3240598090317156</v>
+        <v>0.6662972118238549</v>
       </c>
       <c r="P52" t="n">
-        <v>0.3915712040133573</v>
+        <v>0.6658115882474757</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5351766171715172</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.270489973743212</v>
+        <v>0.7965680102440517</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
+      <c r="A53" t="n">
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
-      </c>
-      <c r="H53" t="n">
-        <v>140</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>220</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5723017283021082</v>
+      </c>
       <c r="J53" t="n">
-        <v>1.00339589274226</v>
+        <v>0.57626708509753</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8009262158931296</v>
+        <v>0.6138901799138116</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8133496238526804</v>
+        <v>0.6940905665365888</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8216746197655448</v>
+        <v>0.5987935710967968</v>
       </c>
       <c r="N53" t="n">
-        <v>1.186096273085194</v>
+        <v>0.7628211330110481</v>
       </c>
       <c r="O53" t="n">
-        <v>1.052698646040138</v>
+        <v>0.8356220153851814</v>
       </c>
       <c r="P53" t="n">
-        <v>1.10462167308326</v>
+        <v>0.5728190155060254</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7735814446200996</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.7671495460665433</v>
+        <v>0.8188627036493412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3760,60 +3599,57 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
-      </c>
-      <c r="H54" t="n">
         <v>220</v>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I54" t="n">
-        <v>-1.869550844924797</v>
+        <v>0.5779825318615162</v>
       </c>
       <c r="J54" t="n">
-        <v>1.219819778621573</v>
+        <v>0.6943217172459607</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9629332016581563</v>
+        <v>0.5583920285936684</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8327897896256699</v>
+        <v>0.7460193904598428</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9494557027785246</v>
+        <v>0.6127124352276232</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7314573864661327</v>
+        <v>0.8309975811839569</v>
       </c>
       <c r="O54" t="n">
-        <v>0.9254465900680231</v>
+        <v>0.9730183525839295</v>
       </c>
       <c r="P54" t="n">
-        <v>1.110780541112985</v>
+        <v>0.5670929017185861</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9595946131567671</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.20933983504871</v>
+        <v>0.8273001818067023</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3822,60 +3658,57 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
-      </c>
-      <c r="H55" t="n">
         <v>220</v>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I55" t="n">
-        <v>-1.85488502883535</v>
+        <v>0.578567176709252</v>
       </c>
       <c r="J55" t="n">
-        <v>1.205005768244791</v>
+        <v>0.582310162256451</v>
       </c>
       <c r="K55" t="n">
-        <v>0.602778753190741</v>
+        <v>0.6405706460921354</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8101500541932007</v>
+        <v>0.6913621188986998</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7437379596793993</v>
+        <v>0.6008818446237061</v>
       </c>
       <c r="N55" t="n">
-        <v>0.7232166686758905</v>
+        <v>0.5951327418322717</v>
       </c>
       <c r="O55" t="n">
-        <v>0.9500451536179375</v>
+        <v>0.6154581042783469</v>
       </c>
       <c r="P55" t="n">
-        <v>1.123088580093547</v>
+        <v>0.5819908919049473</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.247988353939193</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.7474611674855622</v>
+        <v>0.8191405286551727</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3884,60 +3717,57 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
-      </c>
-      <c r="H56" t="n">
         <v>220</v>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I56" t="n">
-        <v>-1.750601407283104</v>
+        <v>0.5976117506044287</v>
       </c>
       <c r="J56" t="n">
-        <v>1.099742304164345</v>
+        <v>0.6265441811650183</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9430632259219185</v>
+        <v>0.5772633219450212</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7389708124738685</v>
+        <v>0.8471074081846057</v>
       </c>
       <c r="M56" t="n">
-        <v>0.5358997835455058</v>
+        <v>0.6749648035802993</v>
       </c>
       <c r="N56" t="n">
-        <v>0.7060667433108451</v>
+        <v>0.7361161632855355</v>
       </c>
       <c r="O56" t="n">
-        <v>0.6041611328602875</v>
+        <v>1.027416945960778</v>
       </c>
       <c r="P56" t="n">
-        <v>0.662512886442028</v>
+        <v>0.5607808564640291</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.209735496225833</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.516244874259066</v>
+        <v>0.857270749466242</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3946,60 +3776,57 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>20</v>
-      </c>
-      <c r="H57" t="n">
         <v>220</v>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I57" t="n">
-        <v>-1.383729540736944</v>
+        <v>0.5760524631987363</v>
       </c>
       <c r="J57" t="n">
-        <v>0.756571581177218</v>
+        <v>0.5608639930501218</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3489026367279338</v>
+        <v>0.6137548730297883</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4869702379764917</v>
+        <v>0.8000977413214857</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3665927040117157</v>
+        <v>0.6377706795845465</v>
       </c>
       <c r="N57" t="n">
-        <v>0.700404369872242</v>
+        <v>0.6703098568546636</v>
       </c>
       <c r="O57" t="n">
-        <v>0.3282740630182962</v>
+        <v>0.7315573517379261</v>
       </c>
       <c r="P57" t="n">
-        <v>0.3193944804837271</v>
+        <v>0.5484215099740543</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.9949377233133583</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.3761199000176586</v>
+        <v>0.8504454222398738</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4008,60 +3835,57 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
-      </c>
-      <c r="H58" t="n">
         <v>220</v>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I58" t="n">
-        <v>-0.6241091867956443</v>
+        <v>0.6329325597010536</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1842068430575955</v>
+        <v>0.6034380847048173</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2390482081379229</v>
+        <v>0.5863628220289956</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2670143764094628</v>
+        <v>0.9237353253115618</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3031739251971304</v>
+        <v>0.7354487633882576</v>
       </c>
       <c r="N58" t="n">
-        <v>0.738588634621684</v>
+        <v>0.6039877933358034</v>
       </c>
       <c r="O58" t="n">
-        <v>0.3072519849918114</v>
+        <v>0.7269946744961343</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3139670236567714</v>
+        <v>0.5788234819825564</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2314873731538758</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.3256013310693853</v>
+        <v>0.878819071161686</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4070,60 +3894,57 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
-      </c>
-      <c r="H59" t="n">
         <v>220</v>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I59" t="n">
-        <v>-1.30159561972619</v>
+        <v>0.5865355306571</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6834657452293773</v>
+        <v>0.584186834727345</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3948108177391552</v>
+        <v>0.5941335273781243</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3981039380792046</v>
+        <v>0.701716241147935</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3935982032069134</v>
+        <v>0.6117453315164021</v>
       </c>
       <c r="N59" t="n">
-        <v>0.7023460409370854</v>
+        <v>0.7668605390483378</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3369494076474533</v>
+        <v>0.7255898359039452</v>
       </c>
       <c r="P59" t="n">
-        <v>0.2857984571762702</v>
+        <v>0.600001178670019</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.5309837965345942</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.4821153498969045</v>
+        <v>0.8253735833030899</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4132,60 +3953,57 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
-      </c>
-      <c r="H60" t="n">
         <v>220</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I60" t="n">
-        <v>-2.000060445567941</v>
+        <v>0.5887534061537607</v>
       </c>
       <c r="J60" t="n">
-        <v>1.328591958892071</v>
+        <v>0.5788189970972254</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9684346096205501</v>
+        <v>0.5640732028810557</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9296983526727475</v>
+        <v>0.7230169050724726</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7663025696979483</v>
+        <v>0.6072279102266102</v>
       </c>
       <c r="N60" t="n">
-        <v>0.7232329841976674</v>
+        <v>0.8139618894064298</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8473690311651657</v>
+        <v>0.8856871368512171</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8426233929369801</v>
+        <v>0.5717523222603423</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.01312879295336</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.7353870646653081</v>
+        <v>0.8295947443233606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4194,370 +4012,352 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
-      </c>
-      <c r="H61" t="n">
         <v>220</v>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I61" t="n">
-        <v>-1.634288757280383</v>
+        <v>0.5833940248562507</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9882828682578915</v>
+        <v>0.5719453181649718</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4192184552958888</v>
+        <v>0.5796781796567358</v>
       </c>
       <c r="L61" t="n">
-        <v>0.6634424458627205</v>
+        <v>0.6148754053715529</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4518787617379285</v>
+        <v>0.5836039241129234</v>
       </c>
       <c r="N61" t="n">
-        <v>0.6919659273099429</v>
+        <v>0.7842619199162206</v>
       </c>
       <c r="O61" t="n">
-        <v>0.5836662318156899</v>
+        <v>0.6012278862042089</v>
       </c>
       <c r="P61" t="n">
-        <v>0.5316367055146354</v>
+        <v>0.628774284636938</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.8508277652637366</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.4298655654225837</v>
+        <v>0.817049607097167</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
-      </c>
-      <c r="H62" t="n">
         <v>220</v>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I62" t="n">
-        <v>-1.662097335695587</v>
+        <v>0.6162299569154936</v>
       </c>
       <c r="J62" t="n">
-        <v>1.01060796099863</v>
+        <v>0.5750849374840592</v>
       </c>
       <c r="K62" t="n">
-        <v>1.081209374316249</v>
+        <v>0.561300252815251</v>
       </c>
       <c r="L62" t="n">
-        <v>0.6454470021468817</v>
+        <v>0.5699011459264083</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4568009214151428</v>
+        <v>0.6175537200287765</v>
       </c>
       <c r="N62" t="n">
-        <v>0.6908892265726563</v>
+        <v>0.6955912300541766</v>
       </c>
       <c r="O62" t="n">
-        <v>0.5152835792847323</v>
+        <v>0.5858858790268658</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4206170626768354</v>
+        <v>0.5766586479100135</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3427782024954706</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.4855777741354111</v>
+        <v>0.950132410717993</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
-      </c>
-      <c r="H63" t="n">
         <v>220</v>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I63" t="n">
-        <v>-0.8767765157615359</v>
+        <v>0.6239128113864931</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3280177652702848</v>
+        <v>0.5841676415952112</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3651464449696041</v>
+        <v>0.7954887425050438</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2946810704301944</v>
+        <v>0.6820646929160258</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2676451352817227</v>
+        <v>0.6194415972682595</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7230800403650318</v>
+        <v>0.6899225467542689</v>
       </c>
       <c r="O63" t="n">
-        <v>0.2577509654689292</v>
+        <v>0.6533568247452675</v>
       </c>
       <c r="P63" t="n">
-        <v>0.2711306270279191</v>
+        <v>0.6103426106444688</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.2493877082369039</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.2656437881763375</v>
+        <v>0.9065666916234615</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
-      </c>
-      <c r="H64" t="n">
         <v>220</v>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I64" t="n">
-        <v>-2.150462177614817</v>
+        <v>0.6059518930215568</v>
       </c>
       <c r="J64" t="n">
-        <v>1.466793071397359</v>
+        <v>0.5901857175379546</v>
       </c>
       <c r="K64" t="n">
-        <v>1.135897771027625</v>
+        <v>0.7380640848480335</v>
       </c>
       <c r="L64" t="n">
-        <v>1.059304452847384</v>
+        <v>0.5872013370476667</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8287921938644115</v>
+        <v>0.6144795220483885</v>
       </c>
       <c r="N64" t="n">
-        <v>0.7435354629439584</v>
+        <v>0.6403506008304415</v>
       </c>
       <c r="O64" t="n">
-        <v>0.7461354105915937</v>
+        <v>0.8852631590000649</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6045556274098652</v>
+        <v>0.6110419369869562</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.9986225782396846</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.087311374792812</v>
+        <v>0.9446696899875286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F65" t="n">
+        <v>20</v>
+      </c>
+      <c r="G65" t="n">
+        <v>220</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9434174985602441</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.188258218881077</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8633956207438164</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8273266120044562</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.9838876838255386</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.271114841252693</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.386105578389435</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.205301651900981</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.114866213584582</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SETAR-2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
         <v>200</v>
       </c>
-      <c r="G65" t="n">
+      <c r="F66" t="n">
         <v>20</v>
       </c>
-      <c r="H65" t="n">
+      <c r="G66" t="n">
         <v>220</v>
       </c>
-      <c r="I65" t="n">
-        <v>-1.520887497355817</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.8798651355332232</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.5270991473763625</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.5526190016491079</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.3649280323500067</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.6905309933128118</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.4895938007646409</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.3499334987719494</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.408636858353865</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.4476950880694568</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SETAR-1</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>200</v>
-      </c>
-      <c r="G66" t="n">
-        <v>20</v>
-      </c>
-      <c r="H66" t="n">
-        <v>220</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.8637401568298607</v>
+      </c>
       <c r="J66" t="n">
-        <v>0.9292475650703632</v>
+        <v>0.6054258803839732</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6657118871651756</v>
+        <v>0.647722712724013</v>
       </c>
       <c r="L66" t="n">
-        <v>0.6399326278639111</v>
+        <v>0.880204190031361</v>
       </c>
       <c r="M66" t="n">
-        <v>0.5357338243971959</v>
+        <v>0.7712968430466278</v>
       </c>
       <c r="N66" t="n">
-        <v>0.713776206548829</v>
+        <v>0.6253729779099845</v>
       </c>
       <c r="O66" t="n">
-        <v>0.5743272792745467</v>
+        <v>0.7028527880930496</v>
       </c>
       <c r="P66" t="n">
-        <v>0.5696699069419593</v>
+        <v>0.5882210625296168</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7531757718222202</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.5923635927532663</v>
+        <v>0.92970361424744</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4566,60 +4366,57 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
-      </c>
-      <c r="H67" t="n">
         <v>220</v>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I67" t="n">
-        <v>-0.390247473508898</v>
+        <v>0.6391395270556909</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2192803462389792</v>
+        <v>0.5922178401514708</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1917802623863001</v>
+        <v>0.8846944108411806</v>
       </c>
       <c r="L67" t="n">
-        <v>0.3785273284688034</v>
+        <v>0.5931493140838027</v>
       </c>
       <c r="M67" t="n">
-        <v>0.4193789447376023</v>
+        <v>0.6355102243674275</v>
       </c>
       <c r="N67" t="n">
-        <v>0.9129892233024328</v>
+        <v>0.6140231265735366</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2691579328340893</v>
+        <v>0.6758337699692132</v>
       </c>
       <c r="P67" t="n">
-        <v>0.2631245764890102</v>
+        <v>0.6343253370738926</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4226073013324881</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.3531192417678204</v>
+        <v>0.954913153145469</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4628,60 +4425,57 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
-      </c>
-      <c r="H68" t="n">
         <v>220</v>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I68" t="n">
-        <v>1.193377998906339</v>
+        <v>1.3796350551954</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9894937095376323</v>
+        <v>1.201414069151707</v>
       </c>
       <c r="K68" t="n">
-        <v>0.7671069907798846</v>
+        <v>0.8944514471612615</v>
       </c>
       <c r="L68" t="n">
-        <v>0.653097153333429</v>
+        <v>1.10877639130513</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4447252756851435</v>
+        <v>1.321049504694029</v>
       </c>
       <c r="N68" t="n">
-        <v>1.021737867604772</v>
+        <v>1.17180628121592</v>
       </c>
       <c r="O68" t="n">
-        <v>1.560202010928531</v>
+        <v>1.065925180005563</v>
       </c>
       <c r="P68" t="n">
-        <v>1.830005965615936</v>
+        <v>1.469585399486739</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5078107220470963</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.6472927289108846</v>
+        <v>1.294534775535138</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4690,60 +4484,57 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>20</v>
-      </c>
-      <c r="H69" t="n">
         <v>220</v>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I69" t="n">
-        <v>-0.5289871014112509</v>
+        <v>1.037098761836979</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2959761843460906</v>
+        <v>0.6057847231446603</v>
       </c>
       <c r="K69" t="n">
-        <v>0.511691422602971</v>
+        <v>0.9213390013337246</v>
       </c>
       <c r="L69" t="n">
-        <v>0.4375712404825504</v>
+        <v>1.158177949831019</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4274518214724472</v>
+        <v>1.017592907934217</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9058339052180651</v>
+        <v>0.6142056861262145</v>
       </c>
       <c r="O69" t="n">
-        <v>0.4939090247474539</v>
+        <v>1.018084603285508</v>
       </c>
       <c r="P69" t="n">
-        <v>0.4132863108629153</v>
+        <v>0.6823587267242753</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3915638871431791</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.7235552028494735</v>
+        <v>1.009723127658859</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4752,60 +4543,57 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
-      </c>
-      <c r="H70" t="n">
         <v>220</v>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I70" t="n">
-        <v>1.485957216037645</v>
+        <v>0.6118323201189869</v>
       </c>
       <c r="J70" t="n">
-        <v>1.271647841502251</v>
+        <v>0.5892559337040492</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9029266515814052</v>
+        <v>1.044463989470614</v>
       </c>
       <c r="L70" t="n">
-        <v>0.857179446104597</v>
+        <v>0.6018794794266203</v>
       </c>
       <c r="M70" t="n">
-        <v>0.6165192468427293</v>
+        <v>0.6546312408884895</v>
       </c>
       <c r="N70" t="n">
-        <v>1.051057128189482</v>
+        <v>0.6098951313735385</v>
       </c>
       <c r="O70" t="n">
-        <v>0.5664615478133327</v>
+        <v>0.6773152920460308</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6246002239149128</v>
+        <v>0.6919896663148347</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.062956290759181</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.895842627232784</v>
+        <v>0.9652559341171527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4814,60 +4602,57 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
-      </c>
-      <c r="H71" t="n">
         <v>220</v>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I71" t="n">
-        <v>-0.329416983612042</v>
+        <v>0.5646531181895255</v>
       </c>
       <c r="J71" t="n">
-        <v>0.19193545543856</v>
+        <v>0.5726820048393215</v>
       </c>
       <c r="K71" t="n">
-        <v>0.270262431827231</v>
+        <v>0.6535211014435638</v>
       </c>
       <c r="L71" t="n">
-        <v>0.3759516464219442</v>
+        <v>0.5550156395805147</v>
       </c>
       <c r="M71" t="n">
-        <v>0.3992621845780102</v>
+        <v>0.5621235783542109</v>
       </c>
       <c r="N71" t="n">
-        <v>0.9217530643698573</v>
+        <v>0.854328301954707</v>
       </c>
       <c r="O71" t="n">
-        <v>0.3545015535529347</v>
+        <v>0.6741202604515284</v>
       </c>
       <c r="P71" t="n">
-        <v>0.3047656005279917</v>
+        <v>0.5960674615004905</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3781563583757875</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.3669969541333123</v>
+        <v>0.918806511530287</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4876,60 +4661,57 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
-      </c>
-      <c r="H72" t="n">
         <v>220</v>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I72" t="n">
-        <v>-0.9226942890505442</v>
+        <v>0.9979628809619489</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5830306965749883</v>
+        <v>0.6392304781109512</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2007887399377334</v>
+        <v>1.246834500533189</v>
       </c>
       <c r="L72" t="n">
-        <v>0.6331704201979138</v>
+        <v>1.014390910412988</v>
       </c>
       <c r="M72" t="n">
-        <v>0.8231000435291338</v>
+        <v>0.8881973911044251</v>
       </c>
       <c r="N72" t="n">
-        <v>0.8853413378667241</v>
+        <v>0.6469957660870017</v>
       </c>
       <c r="O72" t="n">
-        <v>0.6943060090985964</v>
+        <v>0.8065476009681751</v>
       </c>
       <c r="P72" t="n">
-        <v>0.6204802013370621</v>
+        <v>0.8071184376214324</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7206254132474534</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.5049679852722035</v>
+        <v>0.9614858434460746</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4938,432 +4720,411 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
-      </c>
-      <c r="H73" t="n">
         <v>220</v>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Tr200_Ca20</t>
+        </is>
+      </c>
       <c r="I73" t="n">
-        <v>-0.9872985154821196</v>
+        <v>0.8286355464316153</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6383602445801896</v>
+        <v>0.7584945479175961</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3594519928774375</v>
+        <v>1.334696928626161</v>
       </c>
       <c r="L73" t="n">
-        <v>0.7093134462601322</v>
+        <v>0.7646271822361983</v>
       </c>
       <c r="M73" t="n">
-        <v>1.090572211587345</v>
+        <v>0.9009468163996692</v>
       </c>
       <c r="N73" t="n">
-        <v>0.8801906554734162</v>
+        <v>1.195977714884923</v>
       </c>
       <c r="O73" t="n">
-        <v>0.4665431971777971</v>
+        <v>1.189179541809496</v>
       </c>
       <c r="P73" t="n">
-        <v>0.4003222376023473</v>
+        <v>0.6900343422143741</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.9197851328878595</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.456147251420947</v>
+        <v>1.070439831130516</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
-      </c>
-      <c r="H74" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I74" t="n">
-        <v>0.2225098800326827</v>
+        <v>0.7751625241852079</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1727074270449622</v>
+        <v>0.5584834014707358</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2566050063798817</v>
+        <v>0.6095024817607951</v>
       </c>
       <c r="L74" t="n">
-        <v>0.3054368802767553</v>
+        <v>0.5983559204631439</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2937535262959664</v>
+        <v>0.8217591224793914</v>
       </c>
       <c r="N74" t="n">
-        <v>0.9511444770922275</v>
+        <v>0.9261455105965094</v>
       </c>
       <c r="O74" t="n">
-        <v>0.5075384331882561</v>
+        <v>0.7263961326075539</v>
       </c>
       <c r="P74" t="n">
-        <v>0.4084958388853503</v>
+        <v>0.5620773193594333</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.2024896276813969</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.2673025348191858</v>
+        <v>0.8646170056267306</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
-      </c>
-      <c r="H75" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I75" t="n">
-        <v>-0.8996273387197066</v>
+        <v>0.6332116219232377</v>
       </c>
       <c r="J75" t="n">
-        <v>0.566315249379953</v>
+        <v>0.5612608720928085</v>
       </c>
       <c r="K75" t="n">
-        <v>0.8089647889731747</v>
+        <v>0.5750973727540546</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6373978945747694</v>
+        <v>0.5662373274333417</v>
       </c>
       <c r="M75" t="n">
-        <v>0.7498715927214098</v>
+        <v>0.7052249778427129</v>
       </c>
       <c r="N75" t="n">
-        <v>0.8790533908364164</v>
+        <v>0.7311074568930599</v>
       </c>
       <c r="O75" t="n">
-        <v>0.750093371471978</v>
+        <v>0.6078891722793549</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5839911337964414</v>
+        <v>0.5868134251012195</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4148201209048319</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.3708681486147346</v>
+        <v>0.8521396530509919</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
-      </c>
-      <c r="H76" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I76" t="n">
-        <v>1.461669079888101</v>
+        <v>0.630465306824009</v>
       </c>
       <c r="J76" t="n">
-        <v>1.247711854117576</v>
+        <v>0.5945830929486207</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9885914445545296</v>
+        <v>0.8495423394768081</v>
       </c>
       <c r="L76" t="n">
-        <v>0.8228416461442768</v>
+        <v>0.6932254085339464</v>
       </c>
       <c r="M76" t="n">
-        <v>0.486304523565538</v>
+        <v>0.5766279930538472</v>
       </c>
       <c r="N76" t="n">
-        <v>1.042566383740041</v>
+        <v>0.6690621637240936</v>
       </c>
       <c r="O76" t="n">
-        <v>1.122103429739199</v>
+        <v>0.7527814994955025</v>
       </c>
       <c r="P76" t="n">
-        <v>1.347098210654701</v>
+        <v>0.7882753678247676</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.571794759739586</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.293289906032665</v>
+        <v>0.9216211462758982</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
-      </c>
-      <c r="H77" t="n">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
       </c>
       <c r="I77" t="n">
-        <v>2.660676362456244</v>
+        <v>0.6796561603078628</v>
       </c>
       <c r="J77" t="n">
-        <v>2.439464141643425</v>
+        <v>0.6350371546587852</v>
       </c>
       <c r="K77" t="n">
-        <v>1.708919645637428</v>
+        <v>0.6584895861817323</v>
       </c>
       <c r="L77" t="n">
-        <v>1.831900157084969</v>
+        <v>0.7645513061718007</v>
       </c>
       <c r="M77" t="n">
-        <v>1.860173103895064</v>
+        <v>0.5980650471874523</v>
       </c>
       <c r="N77" t="n">
-        <v>1.49547743578795</v>
+        <v>0.614308813302061</v>
       </c>
       <c r="O77" t="n">
-        <v>2.346055979712498</v>
+        <v>0.8192459660854329</v>
       </c>
       <c r="P77" t="n">
-        <v>2.682544477268703</v>
+        <v>0.8077039317703261</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.940361426647928</v>
-      </c>
-      <c r="R77" t="n">
-        <v>2.025776458808137</v>
+        <v>0.9552449872901831</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SETAR-2</t>
+          <t>SETAR-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F78" t="n">
+        <v>40</v>
+      </c>
+      <c r="G78" t="n">
+        <v>240</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.6764615964696484</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.666419580508429</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.687245994772725</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.8969877459496471</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.6610682544939238</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.6521387528614078</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.6336386802517305</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.6602404031948425</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.012038493939873</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SETAR-1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>200</v>
       </c>
-      <c r="G78" t="n">
-        <v>20</v>
-      </c>
-      <c r="H78" t="n">
-        <v>220</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-0.7767116481422269</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4702906786590936</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.6496441471648359</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.5517362707890906</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.5117128082247548</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.8943742714134326</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.4022938936727281</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.3150720017203538</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.5071771412194346</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.4076973281453573</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
-      </c>
-      <c r="H79" t="n">
-        <v>220</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>240</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.6657214709954077</v>
+      </c>
       <c r="J79" t="n">
-        <v>0.7571844857553085</v>
+        <v>0.5836181938883135</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6347277937252345</v>
+        <v>0.5797321719762318</v>
       </c>
       <c r="L79" t="n">
-        <v>0.6828436275116027</v>
+        <v>0.8568197996825981</v>
       </c>
       <c r="M79" t="n">
-        <v>0.6769021069279287</v>
+        <v>0.6135118647758885</v>
       </c>
       <c r="N79" t="n">
-        <v>0.9867932617412348</v>
+        <v>0.6128643770702559</v>
       </c>
       <c r="O79" t="n">
-        <v>0.794430531994783</v>
+        <v>0.5668770042963442</v>
       </c>
       <c r="P79" t="n">
-        <v>0.8161488982229771</v>
+        <v>0.6051895705293879</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.753345681832185</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.7760713640006255</v>
+        <v>0.9905184232593018</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5372,60 +5133,57 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G80" t="n">
-        <v>40</v>
-      </c>
-      <c r="H80" t="n">
         <v>240</v>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I80" t="n">
-        <v>-0.6576718586482704</v>
+        <v>0.6022910293178309</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1843858565819298</v>
+        <v>0.5888321572364155</v>
       </c>
       <c r="K80" t="n">
-        <v>0.363075306923241</v>
+        <v>0.6403454466704032</v>
       </c>
       <c r="L80" t="n">
-        <v>0.251868376429355</v>
+        <v>0.6052489462423426</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2755330313529942</v>
+        <v>0.6229638197417158</v>
       </c>
       <c r="N80" t="n">
-        <v>0.8001879584125131</v>
+        <v>0.6563895276196076</v>
       </c>
       <c r="O80" t="n">
-        <v>0.2510016457728428</v>
+        <v>0.6699986007094594</v>
       </c>
       <c r="P80" t="n">
-        <v>0.3478728477071619</v>
+        <v>0.5915709768511853</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.4645753294953714</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.4685778303185472</v>
+        <v>0.8789167149801501</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5434,60 +5192,57 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>40</v>
-      </c>
-      <c r="H81" t="n">
         <v>240</v>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I81" t="n">
-        <v>-1.095488328666256</v>
+        <v>0.5698201505248065</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1149458050602327</v>
+        <v>0.6297924690576057</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3970583009854037</v>
+        <v>0.596733974861718</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3154576429768845</v>
+        <v>0.6607593101705791</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3459914080567646</v>
+        <v>0.5653569842816393</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7489999213157587</v>
+        <v>0.6083524539751654</v>
       </c>
       <c r="O81" t="n">
-        <v>0.3311275779578139</v>
+        <v>0.7045415827795739</v>
       </c>
       <c r="P81" t="n">
-        <v>0.2523928480726076</v>
+        <v>0.5640005748174266</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.5236086794261832</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.2524967842176754</v>
+        <v>0.9136356542428132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5496,60 +5251,57 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>40</v>
-      </c>
-      <c r="H82" t="n">
         <v>240</v>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I82" t="n">
-        <v>-0.9396290145149881</v>
+        <v>0.6389598700192304</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08354791841343859</v>
+        <v>0.7153461621835979</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3680457085783838</v>
+        <v>0.6967636944545029</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2676073390117383</v>
+        <v>0.8780928773134911</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2647465296930437</v>
+        <v>0.6265478123595004</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7672183684176193</v>
+        <v>0.7037208657451968</v>
       </c>
       <c r="O82" t="n">
-        <v>0.247180186749268</v>
+        <v>0.6002629278114615</v>
       </c>
       <c r="P82" t="n">
-        <v>0.2433616040281292</v>
+        <v>0.6717433052349923</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.4458300145782527</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.2306581840292115</v>
+        <v>0.9941853025770776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5558,60 +5310,57 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
-      </c>
-      <c r="H83" t="n">
         <v>240</v>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I83" t="n">
-        <v>-0.1271391961494517</v>
+        <v>0.7473192453009169</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6726266452637109</v>
+        <v>0.6363736370650229</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4029760744052038</v>
+        <v>0.607867865076266</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3514189070834812</v>
+        <v>0.9235133421931221</v>
       </c>
       <c r="M83" t="n">
-        <v>0.2786761093869932</v>
+        <v>0.6490579925414315</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8634383837057755</v>
+        <v>0.6226549390496281</v>
       </c>
       <c r="O83" t="n">
-        <v>0.4286797494563275</v>
+        <v>1.094129658633763</v>
       </c>
       <c r="P83" t="n">
-        <v>0.6358974397653702</v>
+        <v>0.6286064563019739</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8015446275492385</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.3991326017122081</v>
+        <v>1.014588575144994</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5620,60 +5369,57 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
-        <v>40</v>
-      </c>
-      <c r="H84" t="n">
         <v>240</v>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I84" t="n">
-        <v>0.9255598183207498</v>
+        <v>0.6533276137089451</v>
       </c>
       <c r="J84" t="n">
-        <v>1.725046710167192</v>
+        <v>0.6058149673373532</v>
       </c>
       <c r="K84" t="n">
-        <v>1.334929183701658</v>
+        <v>0.6621062450662097</v>
       </c>
       <c r="L84" t="n">
-        <v>1.023360187736288</v>
+        <v>0.5787871097033032</v>
       </c>
       <c r="M84" t="n">
-        <v>0.7899621949654717</v>
+        <v>0.6754895403558755</v>
       </c>
       <c r="N84" t="n">
-        <v>1.147185548930861</v>
+        <v>0.5970245659528955</v>
       </c>
       <c r="O84" t="n">
-        <v>1.096564234026014</v>
+        <v>0.6058977128444065</v>
       </c>
       <c r="P84" t="n">
-        <v>1.440774373308821</v>
+        <v>0.6413356149427852</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.443151406755354</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.9627247029650915</v>
+        <v>0.8686957357409433</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5682,494 +5428,470 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>40</v>
-      </c>
-      <c r="H85" t="n">
         <v>240</v>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I85" t="n">
-        <v>-1.975517585033351</v>
+        <v>0.5956866247819534</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7492292627404803</v>
+        <v>0.8303616999305271</v>
       </c>
       <c r="K85" t="n">
-        <v>1.203456070516597</v>
+        <v>0.7852332152297992</v>
       </c>
       <c r="L85" t="n">
-        <v>0.7928869865795504</v>
+        <v>0.7920220369018998</v>
       </c>
       <c r="M85" t="n">
-        <v>1.161941364342661</v>
+        <v>0.5803383220959925</v>
       </c>
       <c r="N85" t="n">
-        <v>0.669878061425959</v>
+        <v>0.626807605202923</v>
       </c>
       <c r="O85" t="n">
-        <v>0.9378676197925008</v>
+        <v>0.6158773810423941</v>
       </c>
       <c r="P85" t="n">
-        <v>0.749925611664346</v>
+        <v>0.5886670843536117</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.8243399643777762</v>
-      </c>
-      <c r="R85" t="n">
-        <v>1.155769430660146</v>
+        <v>0.9649302088087165</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G86" t="n">
-        <v>40</v>
-      </c>
-      <c r="H86" t="n">
         <v>240</v>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I86" t="n">
-        <v>-1.316850890325717</v>
+        <v>0.5934606611948697</v>
       </c>
       <c r="J86" t="n">
-        <v>0.226522040342409</v>
+        <v>0.6498369546679152</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3144615253740525</v>
+        <v>0.5806287869811217</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4367057300947396</v>
+        <v>0.5787626592864804</v>
       </c>
       <c r="M86" t="n">
-        <v>0.2971070904174379</v>
+        <v>0.5731004570400213</v>
       </c>
       <c r="N86" t="n">
-        <v>0.7242156682961511</v>
+        <v>0.6444094479290268</v>
       </c>
       <c r="O86" t="n">
-        <v>0.6431555120700329</v>
+        <v>0.5671353318262379</v>
       </c>
       <c r="P86" t="n">
-        <v>0.5181473541448812</v>
+        <v>0.682267147235373</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.3017367136256036</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.2922560014645773</v>
+        <v>1.071128175497033</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>40</v>
-      </c>
-      <c r="H87" t="n">
         <v>240</v>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I87" t="n">
-        <v>-0.5660622509893728</v>
+        <v>0.6220374987870587</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2553106098008796</v>
+        <v>0.5998350186692862</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3126919779249892</v>
+        <v>0.6044152135692979</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2547043021653768</v>
+        <v>0.6071527348385803</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1972664750742647</v>
+        <v>0.5944912515998692</v>
       </c>
       <c r="N87" t="n">
-        <v>0.8101445216464114</v>
+        <v>1.314482588958328</v>
       </c>
       <c r="O87" t="n">
-        <v>0.357004096333049</v>
+        <v>1.28133885126525</v>
       </c>
       <c r="P87" t="n">
-        <v>0.4807861324599438</v>
+        <v>0.6725261026460082</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.630400219998294</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.2536314749833781</v>
+        <v>1.093143256010928</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>40</v>
-      </c>
-      <c r="H88" t="n">
         <v>240</v>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I88" t="n">
-        <v>-0.8541868560189786</v>
+        <v>0.9181486273584918</v>
       </c>
       <c r="J88" t="n">
-        <v>0.08585473768631419</v>
+        <v>1.126173598351034</v>
       </c>
       <c r="K88" t="n">
-        <v>0.4196726357559067</v>
+        <v>1.021082899780959</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2696317710542421</v>
+        <v>0.9515542567952715</v>
       </c>
       <c r="M88" t="n">
-        <v>0.291464612777629</v>
+        <v>0.8614097181062725</v>
       </c>
       <c r="N88" t="n">
-        <v>0.7768002960839884</v>
+        <v>1.191654218791047</v>
       </c>
       <c r="O88" t="n">
-        <v>0.2422131531111396</v>
+        <v>0.8319816698521035</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2230604565107897</v>
+        <v>0.9763132452724567</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.2810568131907107</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.36388228222536</v>
+        <v>1.436869569828493</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>40</v>
-      </c>
-      <c r="H89" t="n">
         <v>240</v>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I89" t="n">
-        <v>0.3506551062862973</v>
+        <v>0.6066710200721668</v>
       </c>
       <c r="J89" t="n">
-        <v>1.15084115157202</v>
+        <v>0.619529196435622</v>
       </c>
       <c r="K89" t="n">
-        <v>0.895553059044345</v>
+        <v>0.6107099408850979</v>
       </c>
       <c r="L89" t="n">
-        <v>0.6127518103896964</v>
+        <v>0.598497652056079</v>
       </c>
       <c r="M89" t="n">
-        <v>0.5340555446464114</v>
+        <v>0.5989474611893684</v>
       </c>
       <c r="N89" t="n">
-        <v>0.9285184358189613</v>
+        <v>0.6416287188643814</v>
       </c>
       <c r="O89" t="n">
-        <v>0.5510387499067948</v>
+        <v>1.269771565310689</v>
       </c>
       <c r="P89" t="n">
-        <v>0.7321985190753353</v>
+        <v>0.7391520573465908</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.8287911107825888</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.6730924069039562</v>
+        <v>1.063894014541765</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G90" t="n">
-        <v>40</v>
-      </c>
-      <c r="H90" t="n">
         <v>240</v>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I90" t="n">
-        <v>-0.7643943246339425</v>
+        <v>0.6273010434447028</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1149665781109331</v>
+        <v>0.7627741230162546</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2892718505075112</v>
+        <v>0.6352060345675876</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2347120720555848</v>
+        <v>0.650269994610855</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3385238619528308</v>
+        <v>0.7403043023439984</v>
       </c>
       <c r="N90" t="n">
-        <v>0.786356668685444</v>
+        <v>0.6302310766846313</v>
       </c>
       <c r="O90" t="n">
-        <v>0.254555295764205</v>
+        <v>0.6408599292439464</v>
       </c>
       <c r="P90" t="n">
-        <v>0.2727969786706987</v>
+        <v>0.600480018249556</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.2900738351876958</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.2762071334743893</v>
+        <v>0.9488030200347521</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SETAR-1</t>
+          <t>SETAR-2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F91" t="n">
+        <v>40</v>
+      </c>
+      <c r="G91" t="n">
+        <v>240</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.7774375734961487</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.6559467035098293</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9514796731955247</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.7315815095865954</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8788403901206597</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.6358545810860973</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.6079771788843268</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.5690693946849864</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.9042817049822284</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SETAR-2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
         <v>200</v>
       </c>
-      <c r="G91" t="n">
+      <c r="F92" t="n">
         <v>40</v>
       </c>
-      <c r="H91" t="n">
+      <c r="G92" t="n">
         <v>240</v>
       </c>
-      <c r="I91" t="n">
-        <v>-1.379818750419314</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.2699874292860243</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.5161065342016167</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.4178741796137352</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.4287363620757112</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.7176029856065407</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.5365354420512596</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0.4607188203702007</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.7827963752101703</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.4647804570481326</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>SETAR-1</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>200</v>
-      </c>
-      <c r="G92" t="n">
-        <v>40</v>
-      </c>
-      <c r="H92" t="n">
-        <v>240</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5872263742130298</v>
+      </c>
       <c r="J92" t="n">
-        <v>0.4694387287521304</v>
+        <v>0.5581738161264196</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5681081856599091</v>
+        <v>0.5651998615993113</v>
       </c>
       <c r="L92" t="n">
-        <v>0.435748275432556</v>
+        <v>0.5642151034158871</v>
       </c>
       <c r="M92" t="n">
-        <v>0.4336670487285179</v>
+        <v>0.5545048259470897</v>
       </c>
       <c r="N92" t="n">
-        <v>0.8117122348621653</v>
+        <v>0.6479246711867814</v>
       </c>
       <c r="O92" t="n">
-        <v>0.4897436052492706</v>
+        <v>0.5824915401468275</v>
       </c>
       <c r="P92" t="n">
-        <v>0.5298277488148571</v>
+        <v>0.5751831324093728</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7181587575147699</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.4827674408335561</v>
+        <v>1.068675332022561</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6178,60 +5900,57 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
-        <v>40</v>
-      </c>
-      <c r="H93" t="n">
         <v>240</v>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I93" t="n">
-        <v>1.309485640144762</v>
+        <v>0.6017636169260596</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7446810249286051</v>
+        <v>0.5821781756432407</v>
       </c>
       <c r="K93" t="n">
-        <v>1.037318606826465</v>
+        <v>0.5898538185529932</v>
       </c>
       <c r="L93" t="n">
-        <v>0.8013111242106791</v>
+        <v>0.6131376947982228</v>
       </c>
       <c r="M93" t="n">
-        <v>0.9534126486479786</v>
+        <v>0.6728935255285659</v>
       </c>
       <c r="N93" t="n">
-        <v>1.148381202271349</v>
+        <v>0.780027716011924</v>
       </c>
       <c r="O93" t="n">
-        <v>0.8360561324507041</v>
+        <v>0.9650065786071857</v>
       </c>
       <c r="P93" t="n">
-        <v>0.8329010131909014</v>
+        <v>0.5879537886761924</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.8540288564042164</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.5977867864475279</v>
+        <v>0.9840258721518389</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6240,60 +5959,57 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>40</v>
-      </c>
-      <c r="H94" t="n">
         <v>240</v>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I94" t="n">
-        <v>-0.477811088993758</v>
+        <v>0.6165350772012507</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3814821843418598</v>
+        <v>0.6007015520050997</v>
       </c>
       <c r="K94" t="n">
-        <v>0.686096141430477</v>
+        <v>0.597010962816913</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3647726960642371</v>
+        <v>0.6088905577786907</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2710545385602009</v>
+        <v>0.6514339398964857</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9128345498016968</v>
+        <v>0.6873269099951819</v>
       </c>
       <c r="O94" t="n">
-        <v>0.4873132951539603</v>
+        <v>0.6380273074662653</v>
       </c>
       <c r="P94" t="n">
-        <v>0.4768465132032589</v>
+        <v>0.5821349265430918</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.1546257592380059</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.5396490431767227</v>
+        <v>1.002712558315192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6302,60 +6018,57 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>40</v>
-      </c>
-      <c r="H95" t="n">
         <v>240</v>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I95" t="n">
-        <v>-0.7702597804039325</v>
+        <v>0.5786995402409242</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5956762919209518</v>
+        <v>0.6733869685621152</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5271006776730546</v>
+        <v>0.5782303752952903</v>
       </c>
       <c r="L95" t="n">
-        <v>0.4582806072374044</v>
+        <v>0.575841729060605</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4519712253833454</v>
+        <v>0.5838040862681058</v>
       </c>
       <c r="N95" t="n">
-        <v>0.8776761650985472</v>
+        <v>0.6148976970421712</v>
       </c>
       <c r="O95" t="n">
-        <v>0.5484740259381429</v>
+        <v>0.5758809813896468</v>
       </c>
       <c r="P95" t="n">
-        <v>0.5823102724928815</v>
+        <v>0.5895397374193511</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.4117460254181746</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.4801666507696852</v>
+        <v>1.046236442965917</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6364,60 +6077,57 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
-        <v>40</v>
-      </c>
-      <c r="H96" t="n">
         <v>240</v>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I96" t="n">
-        <v>0.4600647923474825</v>
+        <v>0.5863313861633681</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2426938454528686</v>
+        <v>0.6491926680198957</v>
       </c>
       <c r="K96" t="n">
-        <v>0.5435470347437557</v>
+        <v>0.5824107004222114</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3982775464728812</v>
+        <v>0.5838716239350191</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1860016860920011</v>
+        <v>0.5770041238334666</v>
       </c>
       <c r="N96" t="n">
-        <v>1.032980922127624</v>
+        <v>0.7061623453772398</v>
       </c>
       <c r="O96" t="n">
-        <v>0.3962880928691452</v>
+        <v>0.6038641840074455</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3623243588796982</v>
+        <v>0.6075746086719961</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.431399816367918</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.3167327363143316</v>
+        <v>1.07498093391058</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6426,551 +6136,52 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>40</v>
-      </c>
-      <c r="H97" t="n">
         <v>240</v>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Tr200_Ca40</t>
+        </is>
+      </c>
       <c r="I97" t="n">
-        <v>0.09985890828962921</v>
+        <v>0.7181983139545817</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1759466448875434</v>
+        <v>0.9067195429001095</v>
       </c>
       <c r="K97" t="n">
-        <v>0.56498386933531</v>
+        <v>0.7592313539858155</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3275672370620383</v>
+        <v>0.7710944427651345</v>
       </c>
       <c r="M97" t="n">
-        <v>0.187985459348707</v>
+        <v>0.933765429490325</v>
       </c>
       <c r="N97" t="n">
-        <v>0.9865338806703878</v>
+        <v>0.654916565940886</v>
       </c>
       <c r="O97" t="n">
-        <v>0.3118227337832452</v>
+        <v>0.7546073320275092</v>
       </c>
       <c r="P97" t="n">
-        <v>0.2762034255230956</v>
+        <v>0.7722539004561469</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.1661207962883654</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.3543452767347942</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>6</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>200</v>
-      </c>
-      <c r="G98" t="n">
-        <v>40</v>
-      </c>
-      <c r="H98" t="n">
-        <v>240</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.1414348392315655</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.1758478703791571</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.1182595513493901</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.3230649349424269</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.5283310736848508</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.9920421397392531</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.3546672526332804</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0.3048803700487427</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.4230335802557025</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.3107711898768006</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>7</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>200</v>
-      </c>
-      <c r="G99" t="n">
-        <v>40</v>
-      </c>
-      <c r="H99" t="n">
-        <v>240</v>
-      </c>
-      <c r="I99" t="n">
-        <v>-1.402289278974488</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.143511872004994</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.085946560911013</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.8406031698740988</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.4069420635334562</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.828559916590073</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.7113584088893865</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0.739554492767913</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>1.253695558459295</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.932876195500242</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>8</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>200</v>
-      </c>
-      <c r="G100" t="n">
-        <v>40</v>
-      </c>
-      <c r="H100" t="n">
-        <v>240</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2.367784267135211</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.720274754013358</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.058213720477439</v>
-      </c>
-      <c r="L100" t="n">
-        <v>1.621438760556733</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.385982838794776</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1.441826327771493</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1.550362329152811</v>
-      </c>
-      <c r="P100" t="n">
-        <v>1.647710938695899</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>1.609167319026103</v>
-      </c>
-      <c r="R100" t="n">
-        <v>1.387630997332418</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>9</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>200</v>
-      </c>
-      <c r="G101" t="n">
-        <v>40</v>
-      </c>
-      <c r="H101" t="n">
-        <v>240</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.129508501432551</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6242167544413417</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.9097043900788033</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.6994510109981383</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.199938842049617</v>
-      </c>
-      <c r="N101" t="n">
-        <v>1.122879770236671</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.6559360510063629</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0.6939842731200305</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.3953738187174863</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.7030946650696281</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>10</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>200</v>
-      </c>
-      <c r="G102" t="n">
-        <v>40</v>
-      </c>
-      <c r="H102" t="n">
-        <v>240</v>
-      </c>
-      <c r="I102" t="n">
-        <v>-1.01274296150678</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.7880706302532161</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.029637030012742</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.5930146916103679</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.3188147823131831</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.8524132854370807</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.5903419351100619</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.6187482536343586</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.4226843485111461</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.441463830113914</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>11</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>200</v>
-      </c>
-      <c r="G103" t="n">
-        <v>40</v>
-      </c>
-      <c r="H103" t="n">
-        <v>240</v>
-      </c>
-      <c r="I103" t="n">
-        <v>-0.7818764968653085</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.5985465447648977</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.2871889828207629</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.5086798009874753</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.9416536181789167</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.8766211858158257</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.3637372741360193</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0.38566671869967</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.4703898985861815</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.8569781802807878</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>12</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>200</v>
-      </c>
-      <c r="G104" t="n">
-        <v>40</v>
-      </c>
-      <c r="H104" t="n">
-        <v>240</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-0.6937562473536192</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.5251083160829352</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.5049087111738801</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.4286724902458376</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.4183202881513475</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.8864306841810763</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.76685377135254</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0.8230431372456505</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.3845591958611612</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.5224841625974882</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SETAR-2</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SETAR</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>200</v>
-      </c>
-      <c r="G105" t="n">
-        <v>40</v>
-      </c>
-      <c r="H105" t="n">
-        <v>240</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.6430047277893108</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.696075439736091</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.6137611725218599</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.5208674220615316</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.9965983358117564</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.6311009418729717</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0.6453478139585084</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.5814020810944798</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.620331642851195</v>
+        <v>0.8991553244939124</v>
       </c>
     </row>
   </sheetData>
